--- a/Data.xlsx
+++ b/Data.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="261">
   <si>
     <t>No</t>
   </si>
@@ -566,25 +566,25 @@
     <t>username</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Metamask</t>
   </si>
   <si>
     <t>laideming935@gmail.com</t>
   </si>
   <si>
+    <t>laideming935LAIDEMING(#%</t>
+  </si>
+  <si>
+    <t>skype</t>
+  </si>
+  <si>
+    <t>live:.cid.743e06823719d20d</t>
+  </si>
+  <si>
+    <t>Soft0810</t>
+  </si>
+  <si>
     <t>20000810@))))*!)</t>
-  </si>
-  <si>
-    <t>skype</t>
-  </si>
-  <si>
-    <t>live:.cid.743e06823719d20d</t>
-  </si>
-  <si>
-    <t>Soft0810</t>
   </si>
   <si>
     <t>edit rural curious lunch decide reform repair defy convince tackle media myself</t>
@@ -808,7 +808,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -818,6 +818,12 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -860,21 +866,8 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9c0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1029,7 +1022,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1043,10 +1036,13 @@
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -1058,109 +1054,112 @@
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
     <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
     <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="8" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="10" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="11" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1471,767 +1470,759 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="19" width="41.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="22" width="37.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="22" width="11.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="22" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="22" width="25.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="22" width="22.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="22" width="27.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="22" width="27.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="22" width="24.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="33" width="41.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="32" width="37.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="32" width="11.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="32" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="23" width="25.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="23" width="22.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="23" width="27.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="23" width="27.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="23" width="24.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="23" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="37"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="32" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="39" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="35" t="s">
+      <c r="B2" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="32" t="s">
+      <c r="E2" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="F2" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="G2" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="H2" s="34"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="34" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="F3" s="18"/>
+      <c r="G3" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="H3" s="34"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="34" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="16"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="G4" s="41"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="16"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" s="42"/>
+      <c r="F5" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="16"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="H2" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="36" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="15" t="s">
+      <c r="E7" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="16"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="16"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10" s="42"/>
+      <c r="F10" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="G10" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="16"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="16"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="I13" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="J13" s="30" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="16"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="G14" s="18"/>
+      <c r="H14" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="I14" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="J14" s="30" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="16"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="G15" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="16"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="C17" s="28"/>
+      <c r="D17" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="G17" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="E18" s="18"/>
+      <c r="F18" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="G18" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="A19" s="42">
+        <v>12029671695</v>
+      </c>
+      <c r="B19" s="34"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+      <c r="A20" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="B20" s="34"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20" s="18"/>
+      <c r="F20" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="G20" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+      <c r="A21" s="16"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+      <c r="A22" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="C22" s="28"/>
+      <c r="D22" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="G22" s="18"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+      <c r="A23" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="32" t="s">
+      <c r="B23" s="30"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="E3" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="36" t="s">
+      <c r="E23" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="F23" s="18"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+      <c r="A24" s="16"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="E24" s="42"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="16"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="E25" s="42"/>
+      <c r="F25" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="G25" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="16"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="39" t="s">
+        <v>238</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="C27" s="28"/>
+      <c r="D27" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="H3" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="36" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="15"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="32" t="s">
+      <c r="E27" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="F27" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="16"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="E4" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="39" t="s">
-        <v>182</v>
-      </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="15"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="32" t="s">
+      <c r="E29" s="42"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="16"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>199</v>
-      </c>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="15"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>200</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>201</v>
-      </c>
-      <c r="G7" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>203</v>
-      </c>
-      <c r="F8" s="36" t="s">
-        <v>204</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="15"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>205</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>206</v>
-      </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="15"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="G10" s="38" t="s">
-        <v>208</v>
-      </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="15"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="B12" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="E12" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="F12" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="G12" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="H12" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="15"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="G13" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="H13" s="27" t="s">
-        <v>213</v>
-      </c>
-      <c r="I13" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="J13" s="27" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="15"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="E14" s="36" t="s">
-        <v>216</v>
-      </c>
-      <c r="F14" s="36" t="s">
-        <v>217</v>
-      </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="I14" s="27" t="s">
-        <v>219</v>
-      </c>
-      <c r="J14" s="27" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="15"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="G15" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="15"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="35" t="s">
-        <v>222</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="E17" s="36" t="s">
-        <v>224</v>
-      </c>
-      <c r="F17" s="36" t="s">
-        <v>225</v>
-      </c>
-      <c r="G17" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="36" t="s">
-        <v>227</v>
-      </c>
-      <c r="G18" s="38" t="s">
-        <v>223</v>
-      </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="40">
-        <v>12029671695</v>
-      </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="40" t="s">
-        <v>228</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="36" t="s">
-        <v>229</v>
-      </c>
-      <c r="G20" s="38" t="s">
-        <v>230</v>
-      </c>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="15"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
-      <c r="A22" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="B22" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="E22" s="36" t="s">
-        <v>233</v>
-      </c>
-      <c r="F22" s="36" t="s">
-        <v>234</v>
-      </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
-      <c r="A23" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="E23" s="36" t="s">
-        <v>235</v>
-      </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
-      <c r="A24" s="15"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="E24" s="40"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="15"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="E25" s="40"/>
-      <c r="F25" s="36" t="s">
-        <v>236</v>
-      </c>
-      <c r="G25" s="38" t="s">
-        <v>237</v>
-      </c>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="15"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="35" t="s">
-        <v>238</v>
-      </c>
-      <c r="B27" s="36" t="s">
-        <v>239</v>
-      </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="E27" s="36" t="s">
-        <v>240</v>
-      </c>
-      <c r="F27" s="36" t="s">
-        <v>241</v>
-      </c>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="E28" s="36" t="s">
-        <v>242</v>
-      </c>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="15"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="E29" s="40"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="15"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="15"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="43" t="s">
+      <c r="A32" s="45" t="s">
         <v>243</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="44" t="s">
+      <c r="A33" s="46" t="s">
         <v>244</v>
       </c>
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="C33" s="36" t="s">
+      <c r="C33" s="34" t="s">
         <v>246</v>
       </c>
-      <c r="D33" s="36" t="s">
+      <c r="D33" s="34" t="s">
         <v>247</v>
       </c>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="46" t="s">
         <v>248</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="36" t="s">
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="44" t="s">
+      <c r="A35" s="46" t="s">
         <v>250</v>
       </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="36" t="s">
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="44" t="s">
+      <c r="A36" s="46" t="s">
         <v>251</v>
       </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="36" t="s">
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="44" t="s">
+      <c r="A37" s="46" t="s">
         <v>252</v>
       </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="36" t="s">
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="15"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="44" t="s">
+      <c r="A39" s="46" t="s">
         <v>253</v>
       </c>
-      <c r="B39" s="27" t="s">
+      <c r="B39" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="C39" s="36" t="s">
+      <c r="C39" s="34" t="s">
         <v>255</v>
       </c>
-      <c r="D39" s="36" t="s">
+      <c r="D39" s="34" t="s">
         <v>256</v>
       </c>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="15"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="44" t="s">
+      <c r="A41" s="46" t="s">
         <v>257</v>
       </c>
-      <c r="B41" s="27" t="s">
+      <c r="B41" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="C41" s="36" t="s">
+      <c r="C41" s="34" t="s">
         <v>259</v>
       </c>
-      <c r="D41" s="36" t="s">
+      <c r="D41" s="34" t="s">
         <v>260</v>
       </c>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2249,409 +2240,409 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="22" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="22" width="45.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="22" width="40.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="22" width="40.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="23" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="23" width="45.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="23" width="40.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="23" width="40.86214285714286" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>118</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17" t="s">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="18" t="s">
         <v>121</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="17"/>
+      <c r="D3" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="18" t="s">
         <v>127</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="18" t="s">
         <v>129</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="18" t="s">
         <v>131</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="D7" s="17"/>
+      <c r="D7" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17" t="s">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="18" t="s">
         <v>134</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17" t="s">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="18" t="s">
         <v>136</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="D11" s="17"/>
+      <c r="D11" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="D12" s="17"/>
+      <c r="D12" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17" t="s">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="D13" s="17"/>
+      <c r="D13" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17" t="s">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="D15" s="17"/>
+      <c r="D15" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="17"/>
-      <c r="B18" s="24" t="s">
+      <c r="A18" s="18"/>
+      <c r="B18" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="D25" s="17"/>
+      <c r="D25" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17" t="s">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="D26" s="17"/>
+      <c r="D26" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17" t="s">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="D27" s="17"/>
+      <c r="D27" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17" t="s">
+      <c r="A30" s="18"/>
+      <c r="B30" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17" t="s">
+      <c r="A31" s="18"/>
+      <c r="B31" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17" t="s">
+      <c r="A32" s="18"/>
+      <c r="B32" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17" t="s">
+      <c r="A33" s="18"/>
+      <c r="B33" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17" t="s">
+      <c r="A34" s="18"/>
+      <c r="B34" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17" t="s">
+      <c r="A35" s="18"/>
+      <c r="B35" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17" t="s">
+      <c r="A36" s="18"/>
+      <c r="B36" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17" t="s">
+      <c r="A39" s="18"/>
+      <c r="B39" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17" t="s">
+      <c r="A40" s="18"/>
+      <c r="B40" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="17"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="17"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
+      <c r="A43" s="18"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="17"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
+      <c r="A45" s="18"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2669,496 +2660,496 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="22" width="97.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="23" width="97.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>55</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>56</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>57</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="18" t="s">
         <v>58</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="18" t="s">
         <v>59</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="18" t="s">
         <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="18" t="s">
         <v>56</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="18" t="s">
         <v>57</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
         <v>61</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="18" t="s">
         <v>62</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="18" t="s">
         <v>63</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="18" t="s">
         <v>65</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="13" t="s">
         <v>66</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="18" t="s">
         <v>67</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="18" t="s">
         <v>68</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="18" t="s">
         <v>69</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="18" t="s">
         <v>70</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="13" t="s">
         <v>71</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="18" t="s">
         <v>69</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="18" t="s">
         <v>72</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="18" t="s">
         <v>73</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="13" t="s">
         <v>74</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="18" t="s">
         <v>65</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="18" t="s">
         <v>75</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="13" t="s">
         <v>76</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="18" t="s">
         <v>77</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="18" t="s">
         <v>72</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="18" t="s">
         <v>78</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="13" t="s">
         <v>79</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="18" t="s">
         <v>80</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="18" t="s">
         <v>72</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="18" t="s">
         <v>81</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="13" t="s">
         <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="18" t="s">
         <v>80</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="18" t="s">
         <v>83</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="18" t="s">
         <v>84</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="13" t="s">
         <v>85</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="18" t="s">
         <v>65</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="18" t="s">
         <v>86</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="13" t="s">
         <v>87</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="18" t="s">
         <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="18" t="s">
         <v>89</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="13" t="s">
         <v>90</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="18" t="s">
         <v>91</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="18" t="s">
         <v>65</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="18" t="s">
         <v>92</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="13" t="s">
         <v>93</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="17" t="s">
+      <c r="A49" s="18" t="s">
         <v>69</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="17" t="s">
+      <c r="A50" s="18" t="s">
         <v>80</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
-      <c r="A51" s="17" t="s">
+      <c r="A51" s="18" t="s">
         <v>72</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="13" t="s">
         <v>94</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
-      <c r="A53" s="17" t="s">
+      <c r="A53" s="18" t="s">
         <v>80</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
-      <c r="A54" s="17" t="s">
+      <c r="A54" s="18" t="s">
         <v>77</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
-      <c r="A55" s="17" t="s">
+      <c r="A55" s="18" t="s">
         <v>67</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
-      <c r="A56" s="12" t="s">
+      <c r="A56" s="13" t="s">
         <v>95</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
-      <c r="A57" s="17" t="s">
+      <c r="A57" s="18" t="s">
         <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
-      <c r="A58" s="17" t="s">
+      <c r="A58" s="18" t="s">
         <v>80</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
-      <c r="A59" s="17" t="s">
+      <c r="A59" s="18" t="s">
         <v>72</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
-      <c r="A60" s="12" t="s">
+      <c r="A60" s="13" t="s">
         <v>97</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
-      <c r="A61" s="17" t="s">
+      <c r="A61" s="18" t="s">
         <v>98</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
-      <c r="A62" s="17" t="s">
+      <c r="A62" s="18" t="s">
         <v>75</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
-      <c r="A63" s="12" t="s">
+      <c r="A63" s="13" t="s">
         <v>99</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
-      <c r="A64" s="17" t="s">
+      <c r="A64" s="18" t="s">
         <v>75</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
-      <c r="A65" s="17" t="s">
+      <c r="A65" s="18" t="s">
         <v>92</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
-      <c r="A66" s="12" t="s">
+      <c r="A66" s="13" t="s">
         <v>100</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
-      <c r="A67" s="17" t="s">
+      <c r="A67" s="18" t="s">
         <v>92</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
-      <c r="A68" s="17" t="s">
+      <c r="A68" s="18" t="s">
         <v>101</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
-      <c r="A69" s="12" t="s">
+      <c r="A69" s="13" t="s">
         <v>102</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
-      <c r="A70" s="17" t="s">
+      <c r="A70" s="18" t="s">
         <v>65</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
-      <c r="A71" s="17" t="s">
+      <c r="A71" s="18" t="s">
         <v>103</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
-      <c r="A72" s="17" t="s">
+      <c r="A72" s="18" t="s">
         <v>92</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
-      <c r="A73" s="12" t="s">
+      <c r="A73" s="13" t="s">
         <v>104</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
-      <c r="A74" s="17" t="s">
+      <c r="A74" s="18" t="s">
         <v>92</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
-      <c r="A75" s="17" t="s">
+      <c r="A75" s="18" t="s">
         <v>72</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
-      <c r="A76" s="17" t="s">
+      <c r="A76" s="18" t="s">
         <v>105</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
-      <c r="A77" s="12" t="s">
+      <c r="A77" s="13" t="s">
         <v>106</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
-      <c r="A78" s="17" t="s">
+      <c r="A78" s="18" t="s">
         <v>107</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
-      <c r="A79" s="17" t="s">
+      <c r="A79" s="18" t="s">
         <v>92</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
-      <c r="A80" s="17" t="s">
+      <c r="A80" s="18" t="s">
         <v>65</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
-      <c r="A81" s="12" t="s">
+      <c r="A81" s="13" t="s">
         <v>108</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
-      <c r="A82" s="17" t="s">
+      <c r="A82" s="18" t="s">
         <v>65</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
-      <c r="A83" s="17" t="s">
+      <c r="A83" s="18" t="s">
         <v>103</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
-      <c r="A84" s="17" t="s">
+      <c r="A84" s="18" t="s">
         <v>92</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
-      <c r="A85" s="12" t="s">
+      <c r="A85" s="13" t="s">
         <v>109</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
-      <c r="A86" s="29" t="s">
+      <c r="A86" s="34" t="s">
         <v>103</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
-      <c r="A87" s="29" t="s">
+      <c r="A87" s="34" t="s">
         <v>65</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
-      <c r="A88" s="29" t="s">
+      <c r="A88" s="34" t="s">
         <v>75</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
-      <c r="A89" s="12" t="s">
+      <c r="A89" s="13" t="s">
         <v>110</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
-      <c r="A90" s="17" t="s">
+      <c r="A90" s="18" t="s">
         <v>65</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
-      <c r="A91" s="17" t="s">
+      <c r="A91" s="18" t="s">
         <v>75</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
-      <c r="A92" s="17" t="s">
+      <c r="A92" s="18" t="s">
         <v>111</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
-      <c r="A93" s="12" t="s">
+      <c r="A93" s="13" t="s">
         <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
-      <c r="A94" s="17" t="s">
+      <c r="A94" s="18" t="s">
         <v>65</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
-      <c r="A95" s="17" t="s">
+      <c r="A95" s="18" t="s">
         <v>113</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
-      <c r="A96" s="12" t="s">
+      <c r="A96" s="13" t="s">
         <v>114</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
-      <c r="A97" s="17" t="s">
+      <c r="A97" s="18" t="s">
         <v>65</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
-      <c r="A98" s="17" t="s">
+      <c r="A98" s="18" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3178,151 +3169,151 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="22" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="19" width="109.57642857142856" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="32" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="33" width="109.57642857142856" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="25">
+      <c r="B1" s="27">
         <v>20000810</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="17"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="27"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="27" t="s">
         <v>31</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="27" t="s">
         <v>33</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="29" t="s">
         <v>35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="17"/>
-      <c r="B6" s="15"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="27" t="s">
         <v>37</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="17"/>
-      <c r="B8" s="15"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="27" t="s">
         <v>39</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="27" t="s">
         <v>41</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="27" t="s">
         <v>43</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="17"/>
-      <c r="B12" s="15"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="27" t="s">
         <v>45</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="27" t="s">
         <v>47</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="27" t="s">
         <v>49</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="17"/>
-      <c r="B16" s="15"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="27" t="s">
         <v>51</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="17"/>
-      <c r="B18" s="15"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="27" t="s">
         <v>52</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="27" t="s">
         <v>53</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="31" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3342,22 +3333,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="19" width="4.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="20" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="21" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="21" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="22" width="11.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="22" width="11.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="22" width="10.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="20" width="14.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="19" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="20" width="13.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="23" width="12.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="21" width="12.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="23" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="21" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="21" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="21" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="20" width="4.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="21" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="22" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="23" width="11.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="23" width="11.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="23" width="10.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="21" width="14.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="23" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="21" width="13.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="24" width="12.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="22" width="12.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="25" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="23" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="23" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="22" width="13.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -3397,7 +3388,7 @@
       <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="6" t="s">
@@ -3406,591 +3397,591 @@
       <c r="O1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="8">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="10">
         <v>45261</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11">
+      <c r="C2" s="11"/>
+      <c r="D2" s="12">
         <v>288</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="10">
         <v>45245</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="9">
         <f>B2-H2</f>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="10">
         <v>45200</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="12">
         <v>180</v>
       </c>
-      <c r="L2" s="11">
+      <c r="L2" s="12">
         <v>0</v>
       </c>
-      <c r="M2" s="11">
+      <c r="M2" s="12">
         <f>L2-K2</f>
       </c>
-      <c r="N2" s="13">
+      <c r="N2" s="14">
         <f>SUM(L:L)</f>
       </c>
-      <c r="O2" s="14">
+      <c r="O2" s="15">
         <f>SUM(M:M)</f>
       </c>
-      <c r="P2" s="14">
+      <c r="P2" s="15">
         <v>-5980</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="8">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="10">
         <v>45322</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11">
+      <c r="C3" s="11"/>
+      <c r="D3" s="12">
         <v>86</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="10">
         <v>45294</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="9">
         <f>B3-H3</f>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="10">
         <v>45231</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="12">
         <v>450</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="12">
         <v>0</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="12">
         <f>L3-K3</f>
       </c>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="8">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="10">
         <v>45325</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11">
+      <c r="C4" s="11"/>
+      <c r="D4" s="12">
         <v>152</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="10">
         <v>45320</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="9">
         <f>B4-H4</f>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="10">
         <v>45261</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="12">
         <v>650</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="12">
         <v>288</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M4" s="12">
         <f>L4-K4</f>
       </c>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="8">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="10">
         <v>45339</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11">
+      <c r="C5" s="11"/>
+      <c r="D5" s="12">
         <v>137</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="10">
         <v>45321</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="9">
         <f>B5-H5</f>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="10">
         <v>45292</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="12">
         <v>950</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="12">
         <v>86</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="12">
         <f>L5-K5</f>
       </c>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="8">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="10">
         <v>45360</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11">
+      <c r="C6" s="11"/>
+      <c r="D6" s="12">
         <v>171.6</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="9">
+      <c r="I6" s="16"/>
+      <c r="J6" s="10">
         <v>45323</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="12">
         <v>950</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="12">
         <v>289</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="12">
         <f>L6-K6</f>
       </c>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="8">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="10">
         <v>45393</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11">
+      <c r="C7" s="11"/>
+      <c r="D7" s="12">
         <v>299</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="9">
+      <c r="H7" s="17"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="10">
         <v>45352</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="12">
         <v>950</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="12">
         <v>171.6</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="12">
         <f>L7-K7</f>
       </c>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="8">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="10">
         <v>45403</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11">
+      <c r="C8" s="11"/>
+      <c r="D8" s="12">
         <v>132</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="9">
+      <c r="H8" s="17"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="10">
         <v>45383</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="12">
         <v>950</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="12">
         <v>431</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M8" s="12">
         <f>L8-K8</f>
       </c>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="8">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="10">
         <v>45477</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11">
+      <c r="C9" s="11"/>
+      <c r="D9" s="12">
         <v>880</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="10">
         <v>45435</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="9">
         <f>B9-H9</f>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="10">
         <v>45413</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="12">
         <v>950</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="12">
         <v>75</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="12">
         <f>L9-K9</f>
       </c>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="8">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="10">
         <v>45519</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="12">
         <v>540</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="12">
         <v>475.2</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="10">
         <v>45513</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="9">
         <f>B10-H10</f>
       </c>
-      <c r="J10" s="16"/>
-      <c r="K10" s="11">
+      <c r="J10" s="17"/>
+      <c r="K10" s="12">
         <v>35.4</v>
       </c>
-      <c r="L10" s="10"/>
-      <c r="M10" s="11">
+      <c r="L10" s="11"/>
+      <c r="M10" s="12">
         <f>L10-K10</f>
       </c>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="9">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="10">
         <v>45444</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="12">
         <v>950</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="12">
         <v>0</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="12">
         <f>L11-K11</f>
       </c>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="11">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="12">
         <v>35.4</v>
       </c>
-      <c r="L12" s="10"/>
-      <c r="M12" s="11">
+      <c r="L12" s="11"/>
+      <c r="M12" s="12">
         <f>L12-K12</f>
       </c>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="9">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="10">
         <v>45474</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="12">
         <v>950</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L13" s="12">
         <v>880</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M13" s="12">
         <f>L13-K13</f>
       </c>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="11">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="12">
         <v>39.6</v>
       </c>
-      <c r="L14" s="10"/>
-      <c r="M14" s="11">
+      <c r="L14" s="11"/>
+      <c r="M14" s="12">
         <f>L14-K14</f>
       </c>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="11">
+      <c r="A15" s="16"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="12">
         <v>47.52</v>
       </c>
-      <c r="L15" s="10"/>
-      <c r="M15" s="11">
+      <c r="L15" s="11"/>
+      <c r="M15" s="12">
         <f>L15-K15</f>
       </c>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="11">
+      <c r="A16" s="16"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="12">
         <v>47.52</v>
       </c>
-      <c r="L16" s="10"/>
-      <c r="M16" s="11">
+      <c r="L16" s="11"/>
+      <c r="M16" s="12">
         <f>L16-K16</f>
       </c>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="11">
+      <c r="A17" s="16"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="12">
         <v>35.4</v>
       </c>
-      <c r="L17" s="18"/>
-      <c r="M17" s="11">
+      <c r="L17" s="19"/>
+      <c r="M17" s="12">
         <f>L17-K17</f>
       </c>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="9">
+      <c r="A18" s="16"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="10">
         <v>45505</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K18" s="12">
         <v>950</v>
       </c>
-      <c r="L18" s="11">
+      <c r="L18" s="12">
         <v>475.2</v>
       </c>
-      <c r="M18" s="11">
+      <c r="M18" s="12">
         <f>L18-K18</f>
       </c>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="11">
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="12">
         <v>35.4</v>
       </c>
-      <c r="L19" s="10"/>
-      <c r="M19" s="11">
+      <c r="L19" s="11"/>
+      <c r="M19" s="12">
         <f>L19-K19</f>
       </c>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1922,7 +1922,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="40" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B23" s="30"/>
       <c r="C23" s="28"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="265">
   <si>
     <t>No</t>
   </si>
@@ -747,6 +747,22 @@
   </si>
   <si>
     <t>high_92583</t>
+  </si>
+  <si>
+    <t>nilsmikkola@gmail.com
+nilsmikkola@gmail.com
+nilsmikkola@gmail.com
+nilsmikkola@gmail.com
+nilsmikkola@gmail.com</t>
+  </si>
+  <si>
+    <t>nilsmikkolaNILSMIKKOLA</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>nilsmikkola</t>
   </si>
   <si>
     <t>wokana</t>
@@ -826,12 +842,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -875,6 +885,12 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1022,7 +1038,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1054,7 +1070,7 @@
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -1069,97 +1085,109 @@
     <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1464,16 +1492,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="33" width="41.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="32" width="37.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="32" width="11.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="32" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="34" width="41.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="33" width="37.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="33" width="11.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="33" width="13.147857142857141" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="23" width="25.576428571428572" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="23" width="22.433571428571426" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="23" width="27.862142857142857" customWidth="1" bestFit="1"/>
@@ -1514,25 +1542,25 @@
       <c r="A2" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="C2" s="28"/>
+      <c r="C2" s="29"/>
       <c r="D2" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="H2" s="34"/>
+      <c r="H2" s="29"/>
       <c r="I2" s="18"/>
-      <c r="J2" s="34" t="s">
+      <c r="J2" s="29" t="s">
         <v>189</v>
       </c>
     </row>
@@ -1540,35 +1568,35 @@
       <c r="A3" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="29" t="s">
         <v>192</v>
       </c>
       <c r="F3" s="18"/>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="H3" s="34"/>
+      <c r="H3" s="29"/>
       <c r="I3" s="18"/>
-      <c r="J3" s="34" t="s">
+      <c r="J3" s="29" t="s">
         <v>193</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="16"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="29" t="s">
         <v>196</v>
       </c>
       <c r="G4" s="41"/>
@@ -1580,13 +1608,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="16"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="34" t="s">
+      <c r="E5" s="16"/>
+      <c r="F5" s="29" t="s">
         <v>198</v>
       </c>
       <c r="G5" s="41" t="s">
@@ -1598,10 +1626,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="16"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="42"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="16"/>
       <c r="F6" s="18"/>
       <c r="G6" s="41"/>
       <c r="H6" s="18"/>
@@ -1612,20 +1640,20 @@
       <c r="A7" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="C7" s="28"/>
+      <c r="C7" s="29"/>
       <c r="D7" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="G7" s="29" t="s">
         <v>188</v>
       </c>
       <c r="H7" s="18"/>
@@ -1636,18 +1664,18 @@
       <c r="A8" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
       <c r="D8" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="29" t="s">
         <v>188</v>
       </c>
       <c r="H8" s="18"/>
@@ -1656,15 +1684,15 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="16"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
       <c r="D9" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="29" t="s">
         <v>206</v>
       </c>
       <c r="G9" s="18"/>
@@ -1674,13 +1702,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="16"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
       <c r="D10" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="E10" s="42"/>
-      <c r="F10" s="34" t="s">
+      <c r="E10" s="16"/>
+      <c r="F10" s="29" t="s">
         <v>207</v>
       </c>
       <c r="G10" s="41" t="s">
@@ -1690,11 +1718,11 @@
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="16"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
@@ -1706,85 +1734,85 @@
       <c r="A12" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="C12" s="28"/>
+      <c r="C12" s="29"/>
       <c r="D12" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="G12" s="34" t="s">
+      <c r="G12" s="29" t="s">
         <v>188</v>
       </c>
       <c r="H12" s="37" t="s">
         <v>211</v>
       </c>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="16"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
       <c r="D13" s="37" t="s">
         <v>191</v>
       </c>
       <c r="E13" s="18"/>
-      <c r="F13" s="34" t="s">
+      <c r="F13" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="G13" s="34" t="s">
+      <c r="G13" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="H13" s="30" t="s">
+      <c r="H13" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="I13" s="30" t="s">
+      <c r="I13" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="J13" s="30" t="s">
+      <c r="J13" s="31" t="s">
         <v>215</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="16"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
       <c r="D14" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="E14" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="F14" s="34" t="s">
+      <c r="F14" s="29" t="s">
         <v>217</v>
       </c>
       <c r="G14" s="18"/>
-      <c r="H14" s="30" t="s">
+      <c r="H14" s="31" t="s">
         <v>218</v>
       </c>
-      <c r="I14" s="30" t="s">
+      <c r="I14" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="J14" s="30" t="s">
+      <c r="J14" s="31" t="s">
         <v>220</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="16"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="37" t="s">
         <v>141</v>
       </c>
       <c r="E15" s="18"/>
-      <c r="F15" s="34" t="s">
+      <c r="F15" s="29" t="s">
         <v>221</v>
       </c>
       <c r="G15" s="41" t="s">
@@ -1796,10 +1824,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="16"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="42"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="16"/>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
@@ -1810,17 +1838,17 @@
       <c r="A17" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="29" t="s">
         <v>223</v>
       </c>
-      <c r="C17" s="28"/>
+      <c r="C17" s="29"/>
       <c r="D17" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="E17" s="34" t="s">
+      <c r="E17" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="F17" s="34" t="s">
+      <c r="F17" s="29" t="s">
         <v>225</v>
       </c>
       <c r="G17" s="41" t="s">
@@ -1834,13 +1862,13 @@
       <c r="A18" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
       <c r="D18" s="37" t="s">
         <v>191</v>
       </c>
       <c r="E18" s="18"/>
-      <c r="F18" s="34" t="s">
+      <c r="F18" s="29" t="s">
         <v>227</v>
       </c>
       <c r="G18" s="41" t="s">
@@ -1851,11 +1879,11 @@
       <c r="J18" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="42">
+      <c r="A19" s="16">
         <v>12029671695</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="28"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
       <c r="D19" s="37" t="s">
         <v>194</v>
       </c>
@@ -1867,16 +1895,16 @@
       <c r="J19" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="28"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
       <c r="D20" s="37" t="s">
         <v>141</v>
       </c>
       <c r="E20" s="18"/>
-      <c r="F20" s="34" t="s">
+      <c r="F20" s="29" t="s">
         <v>229</v>
       </c>
       <c r="G20" s="41" t="s">
@@ -1888,13 +1916,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="16"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="42"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="16"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="34"/>
+      <c r="H21" s="29"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
     </row>
@@ -1902,21 +1930,21 @@
       <c r="A22" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="C22" s="28"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="E22" s="34" t="s">
+      <c r="E22" s="29" t="s">
         <v>233</v>
       </c>
-      <c r="F22" s="34" t="s">
+      <c r="F22" s="29" t="s">
         <v>234</v>
       </c>
       <c r="G22" s="18"/>
-      <c r="H22" s="34"/>
+      <c r="H22" s="29"/>
       <c r="I22" s="18"/>
       <c r="J22" s="18"/>
     </row>
@@ -1924,12 +1952,12 @@
       <c r="A23" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="28"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="29"/>
       <c r="D23" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="E23" s="34" t="s">
+      <c r="E23" s="29" t="s">
         <v>235</v>
       </c>
       <c r="F23" s="18"/>
@@ -1940,27 +1968,27 @@
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="16"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="28"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="29"/>
       <c r="D24" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="E24" s="42"/>
-      <c r="F24" s="44"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="43"/>
       <c r="G24" s="41"/>
       <c r="H24" s="18"/>
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="16"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="28"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="29"/>
       <c r="D25" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="E25" s="42"/>
-      <c r="F25" s="34" t="s">
+      <c r="E25" s="16"/>
+      <c r="F25" s="29" t="s">
         <v>236</v>
       </c>
       <c r="G25" s="41" t="s">
@@ -1970,11 +1998,11 @@
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="16"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
@@ -1982,21 +2010,21 @@
       <c r="I26" s="18"/>
       <c r="J26" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="39" t="s">
         <v>238</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="29" t="s">
         <v>239</v>
       </c>
-      <c r="C27" s="28"/>
+      <c r="C27" s="29"/>
       <c r="D27" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="E27" s="34" t="s">
+      <c r="E27" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="F27" s="34" t="s">
+      <c r="F27" s="29" t="s">
         <v>241</v>
       </c>
       <c r="G27" s="18"/>
@@ -2004,16 +2032,16 @@
       <c r="I27" s="18"/>
       <c r="J27" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
       <c r="D28" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="E28" s="34" t="s">
+      <c r="E28" s="29" t="s">
         <v>242</v>
       </c>
       <c r="F28" s="18"/>
@@ -2022,24 +2050,24 @@
       <c r="I28" s="18"/>
       <c r="J28" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="16"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
       <c r="D29" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="E29" s="42"/>
+      <c r="E29" s="16"/>
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
       <c r="H29" s="18"/>
       <c r="I29" s="18"/>
       <c r="J29" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="16"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
       <c r="D30" s="37" t="s">
         <v>141</v>
       </c>
@@ -2050,11 +2078,11 @@
       <c r="I30" s="18"/>
       <c r="J30" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="16"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
       <c r="E31" s="18"/>
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
@@ -2063,14 +2091,22 @@
       <c r="J31" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="45" t="s">
+      <c r="A32" s="39" t="s">
         <v>243</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
+      <c r="B32" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="C32" s="44"/>
+      <c r="D32" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="E32" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="F32" s="45" t="s">
+        <v>245</v>
+      </c>
       <c r="G32" s="18"/>
       <c r="H32" s="18"/>
       <c r="I32" s="18"/>
@@ -2078,34 +2114,34 @@
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="46" t="s">
-        <v>244</v>
-      </c>
-      <c r="B33" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="F33" s="47" t="s">
         <v>245</v>
       </c>
-      <c r="C33" s="34" t="s">
+      <c r="G33" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="D33" s="34" t="s">
-        <v>247</v>
-      </c>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
       <c r="H33" s="18"/>
       <c r="I33" s="18"/>
       <c r="J33" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="34" t="s">
-        <v>249</v>
-      </c>
-      <c r="E34" s="18"/>
+      <c r="A34" s="48"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="E34" s="16"/>
       <c r="F34" s="18"/>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
@@ -2113,13 +2149,11 @@
       <c r="J34" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="46" t="s">
-        <v>250</v>
-      </c>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="34" t="s">
-        <v>249</v>
+      <c r="A35" s="48"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="37" t="s">
+        <v>141</v>
       </c>
       <c r="E35" s="18"/>
       <c r="F35" s="18"/>
@@ -2129,14 +2163,10 @@
       <c r="J35" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="46" t="s">
-        <v>251</v>
-      </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="34" t="s">
-        <v>249</v>
-      </c>
+      <c r="A36" s="48"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
       <c r="E36" s="18"/>
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
@@ -2144,15 +2174,13 @@
       <c r="I36" s="18"/>
       <c r="J36" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="46" t="s">
-        <v>252</v>
-      </c>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="34" t="s">
-        <v>249</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
+      <c r="A37" s="50" t="s">
+        <v>247</v>
+      </c>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
       <c r="E37" s="18"/>
       <c r="F37" s="18"/>
       <c r="G37" s="18"/>
@@ -2160,11 +2188,19 @@
       <c r="I37" s="18"/>
       <c r="J37" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="16"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
+      <c r="A38" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>251</v>
+      </c>
       <c r="E38" s="18"/>
       <c r="F38" s="18"/>
       <c r="G38" s="18"/>
@@ -2172,18 +2208,14 @@
       <c r="I38" s="18"/>
       <c r="J38" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="46" t="s">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
+      <c r="A39" s="40" t="s">
+        <v>252</v>
+      </c>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29" t="s">
         <v>253</v>
-      </c>
-      <c r="B39" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="C39" s="34" t="s">
-        <v>255</v>
-      </c>
-      <c r="D39" s="34" t="s">
-        <v>256</v>
       </c>
       <c r="E39" s="18"/>
       <c r="F39" s="18"/>
@@ -2192,11 +2224,15 @@
       <c r="I39" s="18"/>
       <c r="J39" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="16"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
+      <c r="A40" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29" t="s">
+        <v>253</v>
+      </c>
       <c r="E40" s="18"/>
       <c r="F40" s="18"/>
       <c r="G40" s="18"/>
@@ -2205,17 +2241,13 @@
       <c r="J40" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="46" t="s">
-        <v>257</v>
-      </c>
-      <c r="B41" s="30" t="s">
-        <v>258</v>
-      </c>
-      <c r="C41" s="34" t="s">
-        <v>259</v>
-      </c>
-      <c r="D41" s="34" t="s">
-        <v>260</v>
+      <c r="A41" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29" t="s">
+        <v>253</v>
       </c>
       <c r="E41" s="18"/>
       <c r="F41" s="18"/>
@@ -2223,6 +2255,86 @@
       <c r="H41" s="18"/>
       <c r="I41" s="18"/>
       <c r="J41" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+      <c r="A42" s="40" t="s">
+        <v>256</v>
+      </c>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+      <c r="A43" s="16"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+      <c r="A44" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="B44" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+      <c r="A45" s="16"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+      <c r="A46" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="B46" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2395,10 +2507,10 @@
       <c r="D16" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="27" t="s">
         <v>142</v>
       </c>
       <c r="C17" s="18"/>
@@ -2406,7 +2518,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="18"/>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="27" t="s">
         <v>143</v>
       </c>
       <c r="C18" s="18"/>
@@ -3089,17 +3201,17 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
-      <c r="A86" s="34" t="s">
+      <c r="A86" s="29" t="s">
         <v>103</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
-      <c r="A87" s="34" t="s">
+      <c r="A87" s="29" t="s">
         <v>65</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
-      <c r="A88" s="34" t="s">
+      <c r="A88" s="29" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3169,151 +3281,151 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="32" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="33" width="109.57642857142856" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="33" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="34" width="109.57642857142856" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="27">
+      <c r="B1" s="28">
         <v>20000810</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="28"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="28"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="28" t="s">
         <v>31</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="28" t="s">
         <v>33</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="30" t="s">
         <v>35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="28"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="28" t="s">
         <v>37</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="28"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="28" t="s">
         <v>39</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="28" t="s">
         <v>41</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="28" t="s">
         <v>43</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="28"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="28" t="s">
         <v>45</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="28" t="s">
         <v>47</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="28" t="s">
         <v>49</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="28"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="28" t="s">
         <v>51</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="28"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="16"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="28" t="s">
         <v>52</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="28" t="s">
         <v>53</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="32" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3341,13 +3453,13 @@
     <col min="6" max="6" style="23" width="11.290714285714287" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="23" width="10.147857142857141" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="21" width="14.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="23" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="24" width="9.147857142857141" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="21" width="13.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="24" width="12.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="25" width="12.147857142857141" customWidth="1" bestFit="1"/>
     <col min="12" max="12" style="22" width="12.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="25" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="23" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="23" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="26" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="24" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="24" width="13.005" customWidth="1" bestFit="1"/>
     <col min="16" max="16" style="22" width="13.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
